--- a/FRC.xlsx
+++ b/FRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F2430B-36B8-496F-9359-A3887CC2C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5305E7-796B-4619-B226-414862DF645E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="525" windowWidth="29280" windowHeight="20850" activeTab="1" xr2:uid="{E6A7FBDB-8E09-49C9-B25C-14331CEA260F}"/>
+    <workbookView xWindow="21330" yWindow="30" windowWidth="29280" windowHeight="20850" activeTab="1" xr2:uid="{E6A7FBDB-8E09-49C9-B25C-14331CEA260F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,16 +192,15 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E03D744A-3CD7-46E7-90F8-558A01CB2C8A}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -580,7 +579,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -638,7 +637,7 @@
         <f>J3</f>
         <v>4283</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <f>K3</f>
         <v>4283</v>
       </c>
@@ -695,7 +694,7 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>166084</v>
       </c>
       <c r="K7" s="1">
@@ -833,7 +832,7 @@
         <f>SUM(J15:J18)</f>
         <v>176437</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <f>J19*0.1</f>
         <v>17643.7</v>
       </c>
@@ -842,7 +841,7 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <f>6700+7300+500+779</f>
         <v>15279</v>
       </c>
@@ -859,7 +858,7 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="3">
         <f>SUM(J19:J21)</f>
         <v>195193</v>
       </c>
